--- a/a.xlsx
+++ b/a.xlsx
@@ -63,7 +63,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>单位名称英文</t>
+    <t>a</t>
   </si>
   <si>
     <t>单位名称</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
